--- a/fipezap.xlsx
+++ b/fipezap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Desktop\POS\ideia tcc\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191CFA6-97FE-42F4-A0C1-72A13470FBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46955492-3104-4861-9C06-AAF2F657E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3585" windowWidth="29040" windowHeight="16440" xr2:uid="{369F8AAA-4BE7-4537-BDBA-00A125DDE404}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{369F8AAA-4BE7-4537-BDBA-00A125DDE404}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500A4D5A-120E-4F0B-BD6D-67270A129728}">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135:A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,348 +3861,348 @@
       <c r="A122" s="1">
         <v>45292</v>
       </c>
-      <c r="B122">
-        <v>8398.9750633646909</v>
+      <c r="B122" s="4">
+        <v>8402</v>
       </c>
       <c r="C122">
-        <v>41.519348926506197</v>
-      </c>
-      <c r="D122">
-        <v>7233.2346325560902</v>
-      </c>
-      <c r="E122">
-        <v>8269.3398534749103</v>
-      </c>
-      <c r="F122">
-        <v>7004.5688616279704</v>
-      </c>
-      <c r="G122">
-        <v>7065.7412891870399</v>
-      </c>
-      <c r="H122">
-        <v>7118.1005869518604</v>
+        <v>41.6</v>
+      </c>
+      <c r="D122" s="4">
+        <v>7233</v>
+      </c>
+      <c r="E122" s="4">
+        <v>8269</v>
+      </c>
+      <c r="F122" s="4">
+        <v>7005</v>
+      </c>
+      <c r="G122" s="4">
+        <v>7066</v>
+      </c>
+      <c r="H122" s="4">
+        <v>7118</v>
       </c>
       <c r="I122">
-        <v>36.580648067628502</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45323</v>
       </c>
-      <c r="B123">
-        <v>8440.1870570276496</v>
+      <c r="B123" s="4">
+        <v>8443</v>
       </c>
       <c r="C123">
-        <v>42.051279588092001</v>
-      </c>
-      <c r="D123">
-        <v>7285.9817805072398</v>
-      </c>
-      <c r="E123">
-        <v>8290.2878435948696</v>
-      </c>
-      <c r="F123">
-        <v>7048.2590708552398</v>
-      </c>
-      <c r="G123">
-        <v>7148.6934528515203</v>
-      </c>
-      <c r="H123">
-        <v>7144.1992358010502</v>
+        <v>42.1</v>
+      </c>
+      <c r="D123" s="4">
+        <v>7286</v>
+      </c>
+      <c r="E123" s="4">
+        <v>8290</v>
+      </c>
+      <c r="F123" s="4">
+        <v>7048</v>
+      </c>
+      <c r="G123" s="4">
+        <v>7149</v>
+      </c>
+      <c r="H123" s="4">
+        <v>7144</v>
       </c>
       <c r="I123">
-        <v>37.1801422604915</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45352</v>
       </c>
-      <c r="B124">
-        <v>8494.1862133033701</v>
+      <c r="B124" s="4">
+        <v>8497</v>
       </c>
       <c r="C124">
-        <v>42.540513905651402</v>
-      </c>
-      <c r="D124">
-        <v>7347.0917097709098</v>
-      </c>
-      <c r="E124">
-        <v>8402.1981673005794</v>
-      </c>
-      <c r="F124">
-        <v>7090.4856893721499</v>
-      </c>
-      <c r="G124">
-        <v>7209.2962931517304</v>
-      </c>
-      <c r="H124">
-        <v>7203.1942458084304</v>
+        <v>42.6</v>
+      </c>
+      <c r="D124" s="4">
+        <v>7347</v>
+      </c>
+      <c r="E124" s="4">
+        <v>8402</v>
+      </c>
+      <c r="F124" s="4">
+        <v>7090</v>
+      </c>
+      <c r="G124" s="4">
+        <v>7209</v>
+      </c>
+      <c r="H124" s="4">
+        <v>7203</v>
       </c>
       <c r="I124">
-        <v>37.411824470964397</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45383</v>
       </c>
-      <c r="B125">
-        <v>8550.48978534038</v>
+      <c r="B125" s="4">
+        <v>8554</v>
       </c>
       <c r="C125">
-        <v>43.127181656790199</v>
-      </c>
-      <c r="D125">
-        <v>7395.0648538054802</v>
-      </c>
-      <c r="E125">
-        <v>8553.7424427508795</v>
-      </c>
-      <c r="F125">
-        <v>7102.7756307197897</v>
-      </c>
-      <c r="G125">
-        <v>7270.5820129445601</v>
-      </c>
-      <c r="H125">
-        <v>7177.8863423525499</v>
+        <v>43.2</v>
+      </c>
+      <c r="D125" s="4">
+        <v>7395</v>
+      </c>
+      <c r="E125" s="4">
+        <v>8554</v>
+      </c>
+      <c r="F125" s="4">
+        <v>7103</v>
+      </c>
+      <c r="G125" s="4">
+        <v>7271</v>
+      </c>
+      <c r="H125" s="4">
+        <v>7178</v>
       </c>
       <c r="I125">
-        <v>37.735268187425802</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45413</v>
       </c>
-      <c r="B126">
-        <v>8613.9853301103994</v>
+      <c r="B126" s="4">
+        <v>8617</v>
       </c>
       <c r="C126">
-        <v>43.667267407342898</v>
-      </c>
-      <c r="D126">
-        <v>7503.5099358192401</v>
-      </c>
-      <c r="E126">
-        <v>8677.9094681987208</v>
-      </c>
-      <c r="F126">
-        <v>7207.2018301271701</v>
-      </c>
-      <c r="G126">
-        <v>7375.0799309653103</v>
-      </c>
-      <c r="H126">
-        <v>7292.5518599908301</v>
+        <v>43.7</v>
+      </c>
+      <c r="D126" s="4">
+        <v>7504</v>
+      </c>
+      <c r="E126" s="4">
+        <v>8678</v>
+      </c>
+      <c r="F126" s="4">
+        <v>7207</v>
+      </c>
+      <c r="G126" s="4">
+        <v>7375</v>
+      </c>
+      <c r="H126" s="4">
+        <v>7293</v>
       </c>
       <c r="I126">
-        <v>37.743506525540298</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45444</v>
       </c>
-      <c r="B127">
-        <v>8666.6064488112097</v>
+      <c r="B127" s="4">
+        <v>8670</v>
       </c>
       <c r="C127">
-        <v>44.290919584679102</v>
-      </c>
-      <c r="D127">
-        <v>7562.1168329784296</v>
-      </c>
-      <c r="E127">
-        <v>8759.5473472228896</v>
-      </c>
-      <c r="F127">
-        <v>7327.89348339559</v>
-      </c>
-      <c r="G127">
-        <v>7375.0402504697304</v>
-      </c>
-      <c r="H127">
-        <v>7274.5586398017904</v>
+        <v>44.3</v>
+      </c>
+      <c r="D127" s="4">
+        <v>7562</v>
+      </c>
+      <c r="E127" s="4">
+        <v>8760</v>
+      </c>
+      <c r="F127" s="4">
+        <v>7328</v>
+      </c>
+      <c r="G127" s="4">
+        <v>7375</v>
+      </c>
+      <c r="H127" s="4">
+        <v>7275</v>
       </c>
       <c r="I127">
-        <v>38.140373938045002</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45474</v>
       </c>
-      <c r="B128">
-        <v>8732.1509982704993</v>
+      <c r="B128" s="4">
+        <v>8735</v>
       </c>
       <c r="C128">
-        <v>44.786354087054903</v>
-      </c>
-      <c r="D128">
-        <v>7650.3971029148397</v>
-      </c>
-      <c r="E128">
-        <v>8900.6935942385207</v>
-      </c>
-      <c r="F128">
-        <v>7461.0080624969796</v>
-      </c>
-      <c r="G128">
-        <v>7362.3538083760504</v>
-      </c>
-      <c r="H128">
-        <v>7478.5040340477199</v>
+        <v>44.8</v>
+      </c>
+      <c r="D128" s="4">
+        <v>7650</v>
+      </c>
+      <c r="E128" s="4">
+        <v>8901</v>
+      </c>
+      <c r="F128" s="4">
+        <v>7461</v>
+      </c>
+      <c r="G128" s="4">
+        <v>7362</v>
+      </c>
+      <c r="H128" s="4">
+        <v>7479</v>
       </c>
       <c r="I128">
-        <v>38.454141024803</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45505</v>
       </c>
-      <c r="B129">
-        <v>8798.0789868980391</v>
+      <c r="B129" s="4">
+        <v>8801</v>
       </c>
       <c r="C129">
-        <v>45.178922180359997</v>
-      </c>
-      <c r="D129">
-        <v>7746.0208497912399</v>
-      </c>
-      <c r="E129">
-        <v>9067.3579128147903</v>
-      </c>
-      <c r="F129">
-        <v>7564.8046715942601</v>
-      </c>
-      <c r="G129">
-        <v>7372.9021501331799</v>
-      </c>
-      <c r="H129">
-        <v>7755.3977590145396</v>
+        <v>45.2</v>
+      </c>
+      <c r="D129" s="4">
+        <v>7746</v>
+      </c>
+      <c r="E129" s="4">
+        <v>9067</v>
+      </c>
+      <c r="F129" s="4">
+        <v>7565</v>
+      </c>
+      <c r="G129" s="4">
+        <v>7373</v>
+      </c>
+      <c r="H129" s="4">
+        <v>7755</v>
       </c>
       <c r="I129">
-        <v>38.855568061056402</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45536</v>
       </c>
-      <c r="B130">
-        <v>8860.6359431291203</v>
+      <c r="B130" s="4">
+        <v>8864</v>
       </c>
       <c r="C130">
-        <v>45.4727562686749</v>
-      </c>
-      <c r="D130">
-        <v>7827.6664300626499</v>
-      </c>
-      <c r="E130">
-        <v>9228.5280099860793</v>
-      </c>
-      <c r="F130">
-        <v>7642.9529271385099</v>
-      </c>
-      <c r="G130">
-        <v>7420.5104000318197</v>
-      </c>
-      <c r="H130">
-        <v>7852.2692712068001</v>
+        <v>45.5</v>
+      </c>
+      <c r="D130" s="4">
+        <v>7828</v>
+      </c>
+      <c r="E130" s="4">
+        <v>9229</v>
+      </c>
+      <c r="F130" s="4">
+        <v>7643</v>
+      </c>
+      <c r="G130" s="4">
+        <v>7421</v>
+      </c>
+      <c r="H130" s="4">
+        <v>7852</v>
       </c>
       <c r="I130">
-        <v>38.953099687715003</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45566</v>
       </c>
-      <c r="B131">
-        <v>8913.5554470060706</v>
+      <c r="B131" s="4">
+        <v>8917</v>
       </c>
       <c r="C131">
-        <v>45.680846715125497</v>
-      </c>
-      <c r="D131">
-        <v>7914.3494404163202</v>
-      </c>
-      <c r="E131">
-        <v>9407.0964455959802</v>
-      </c>
-      <c r="F131">
-        <v>7741.3751917194104</v>
-      </c>
-      <c r="G131">
-        <v>7495.2796175781004</v>
-      </c>
-      <c r="H131">
-        <v>7779.1755717556198</v>
+        <v>45.7</v>
+      </c>
+      <c r="D131" s="4">
+        <v>7914</v>
+      </c>
+      <c r="E131" s="4">
+        <v>9407</v>
+      </c>
+      <c r="F131" s="4">
+        <v>7741</v>
+      </c>
+      <c r="G131" s="4">
+        <v>7495</v>
+      </c>
+      <c r="H131" s="4">
+        <v>7779</v>
       </c>
       <c r="I131">
-        <v>38.9858882584697</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45597</v>
       </c>
-      <c r="B132">
-        <v>8957.1205581525501</v>
+      <c r="B132" s="4">
+        <v>8960</v>
       </c>
       <c r="C132">
-        <v>46.107144734144498</v>
-      </c>
-      <c r="D132">
-        <v>7910.8370963625703</v>
-      </c>
-      <c r="E132">
-        <v>9477.2707972797198</v>
-      </c>
-      <c r="F132">
-        <v>7735.5209717835796</v>
-      </c>
-      <c r="G132">
-        <v>7523.6655274006598</v>
-      </c>
-      <c r="H132">
-        <v>7534.413310942</v>
+        <v>46.2</v>
+      </c>
+      <c r="D132" s="4">
+        <v>7911</v>
+      </c>
+      <c r="E132" s="4">
+        <v>9477</v>
+      </c>
+      <c r="F132" s="4">
+        <v>7736</v>
+      </c>
+      <c r="G132" s="4">
+        <v>7524</v>
+      </c>
+      <c r="H132" s="4">
+        <v>7534</v>
       </c>
       <c r="I132">
-        <v>39.195723023189998</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45627</v>
       </c>
-      <c r="B133">
-        <v>9016.0179185230008</v>
+      <c r="B133" s="4">
+        <v>9019</v>
       </c>
       <c r="C133">
-        <v>46.536341627396602</v>
-      </c>
-      <c r="D133">
-        <v>7936.70174415369</v>
-      </c>
-      <c r="E133">
-        <v>9560.0053775615906</v>
-      </c>
-      <c r="F133">
-        <v>7714.7744572660404</v>
-      </c>
-      <c r="G133">
-        <v>7582.3763906386303</v>
-      </c>
-      <c r="H133">
-        <v>7536.2645538268398</v>
+        <v>46.6</v>
+      </c>
+      <c r="D133" s="4">
+        <v>7937</v>
+      </c>
+      <c r="E133" s="4">
+        <v>9560</v>
+      </c>
+      <c r="F133" s="4">
+        <v>7715</v>
+      </c>
+      <c r="G133" s="4">
+        <v>7582</v>
+      </c>
+      <c r="H133" s="4">
+        <v>7536</v>
       </c>
       <c r="I133">
-        <v>39.576522192523299</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
         <v>45658</v>
       </c>
       <c r="B134" s="4">
-        <v>9070</v>
+        <v>9072</v>
       </c>
       <c r="C134">
         <v>47</v>
@@ -4239,7 +4239,7 @@
         <v>45689</v>
       </c>
       <c r="B135" s="4">
-        <v>9131</v>
+        <v>9134</v>
       </c>
       <c r="C135">
         <v>47.5</v>
@@ -4268,7 +4268,7 @@
         <v>45717</v>
       </c>
       <c r="B136" s="4">
-        <v>9186</v>
+        <v>9188</v>
       </c>
       <c r="C136">
         <v>48.1</v>
@@ -4297,7 +4297,7 @@
         <v>45748</v>
       </c>
       <c r="B137" s="4">
-        <v>9233</v>
+        <v>9235</v>
       </c>
       <c r="C137">
         <v>48.7</v>
@@ -4319,6 +4319,64 @@
       </c>
       <c r="I137">
         <v>41.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B138" s="4">
+        <v>9278</v>
+      </c>
+      <c r="C138">
+        <v>49</v>
+      </c>
+      <c r="D138" s="4">
+        <v>7905</v>
+      </c>
+      <c r="E138" s="4">
+        <v>9499</v>
+      </c>
+      <c r="F138" s="4">
+        <v>7654</v>
+      </c>
+      <c r="G138" s="4">
+        <v>7698</v>
+      </c>
+      <c r="H138" s="4">
+        <v>7095</v>
+      </c>
+      <c r="I138">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B139" s="4">
+        <v>9319</v>
+      </c>
+      <c r="C139">
+        <v>49.2</v>
+      </c>
+      <c r="D139" s="4">
+        <v>7886</v>
+      </c>
+      <c r="E139" s="4">
+        <v>9475</v>
+      </c>
+      <c r="F139" s="4">
+        <v>7685</v>
+      </c>
+      <c r="G139" s="4">
+        <v>7643</v>
+      </c>
+      <c r="H139" s="4">
+        <v>7010</v>
+      </c>
+      <c r="I139">
+        <v>41.8</v>
       </c>
     </row>
   </sheetData>

--- a/fipezap.xlsx
+++ b/fipezap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Desktop\POS\ideia tcc\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46955492-3104-4861-9C06-AAF2F657E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D15F89-415E-44A7-9662-9067678F5390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{369F8AAA-4BE7-4537-BDBA-00A125DDE404}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>br_price</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>go_price</t>
-  </si>
-  <si>
-    <t>go_price_1d</t>
-  </si>
-  <si>
-    <t>go_price_2d</t>
-  </si>
-  <si>
-    <t>go_price_3d</t>
-  </si>
-  <si>
-    <t>go_price_4d</t>
   </si>
 </sst>
 </file>
@@ -442,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500A4D5A-120E-4F0B-BD6D-67270A129728}">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:A139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,10 +441,9 @@
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -470,22 +457,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41640</v>
       </c>
@@ -498,20 +473,8 @@
       <c r="D2">
         <v>3649.9080500573</v>
       </c>
-      <c r="E2">
-        <v>4069.2956226037199</v>
-      </c>
-      <c r="F2">
-        <v>3268.1418918223799</v>
-      </c>
-      <c r="G2">
-        <v>3684.3689430992499</v>
-      </c>
-      <c r="H2">
-        <v>4341.05048014162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41671</v>
       </c>
@@ -524,20 +487,8 @@
       <c r="D3">
         <v>3677.7734501222199</v>
       </c>
-      <c r="E3">
-        <v>4224.86260068926</v>
-      </c>
-      <c r="F3">
-        <v>3279.43320211424</v>
-      </c>
-      <c r="G3">
-        <v>3726.5932879852198</v>
-      </c>
-      <c r="H3">
-        <v>4211.8743353075697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41699</v>
       </c>
@@ -550,20 +501,8 @@
       <c r="D4">
         <v>3730.1335809465099</v>
       </c>
-      <c r="E4">
-        <v>4372.4427274462696</v>
-      </c>
-      <c r="F4">
-        <v>3326.1360937919699</v>
-      </c>
-      <c r="G4">
-        <v>3775.4826213814099</v>
-      </c>
-      <c r="H4">
-        <v>4172.8428557700599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41730</v>
       </c>
@@ -576,20 +515,8 @@
       <c r="D5">
         <v>3800.9759469627302</v>
       </c>
-      <c r="E5">
-        <v>4538.1572664675796</v>
-      </c>
-      <c r="F5">
-        <v>3367.4124966661302</v>
-      </c>
-      <c r="G5">
-        <v>3850.31141923103</v>
-      </c>
-      <c r="H5">
-        <v>4224.7335443942402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41760</v>
       </c>
@@ -602,20 +529,8 @@
       <c r="D6">
         <v>3841.9538431753699</v>
       </c>
-      <c r="E6">
-        <v>4598.0981317408196</v>
-      </c>
-      <c r="F6">
-        <v>3387.5478599979601</v>
-      </c>
-      <c r="G6">
-        <v>3915.9371840264498</v>
-      </c>
-      <c r="H6">
-        <v>4228.6886668869902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41791</v>
       </c>
@@ -628,20 +543,8 @@
       <c r="D7">
         <v>3878.8649579307098</v>
       </c>
-      <c r="E7">
-        <v>4684.6548754797004</v>
-      </c>
-      <c r="F7">
-        <v>3401.4265226906</v>
-      </c>
-      <c r="G7">
-        <v>3953.4959181603799</v>
-      </c>
-      <c r="H7">
-        <v>4294.1290839881303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41821</v>
       </c>
@@ -654,20 +557,8 @@
       <c r="D8">
         <v>3921.6154724930402</v>
       </c>
-      <c r="E8">
-        <v>4813.9847817690998</v>
-      </c>
-      <c r="F8">
-        <v>3436.0664264443699</v>
-      </c>
-      <c r="G8">
-        <v>3976.4333144848401</v>
-      </c>
-      <c r="H8">
-        <v>4333.8465051823196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41852</v>
       </c>
@@ -680,20 +571,8 @@
       <c r="D9">
         <v>3988.2936650665101</v>
       </c>
-      <c r="E9">
-        <v>4979.2308399829199</v>
-      </c>
-      <c r="F9">
-        <v>3506.73021935203</v>
-      </c>
-      <c r="G9">
-        <v>4000.6191034859498</v>
-      </c>
-      <c r="H9">
-        <v>4418.73400076293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41883</v>
       </c>
@@ -706,20 +585,8 @@
       <c r="D10">
         <v>4027.2500536592202</v>
       </c>
-      <c r="E10">
-        <v>5002.1058318925297</v>
-      </c>
-      <c r="F10">
-        <v>3571.4774259339702</v>
-      </c>
-      <c r="G10">
-        <v>4029.98259953972</v>
-      </c>
-      <c r="H10">
-        <v>4403.2692573811801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41913</v>
       </c>
@@ -732,20 +599,8 @@
       <c r="D11">
         <v>4067.1364380694099</v>
       </c>
-      <c r="E11">
-        <v>4986.2018696298201</v>
-      </c>
-      <c r="F11">
-        <v>3637.29323441415</v>
-      </c>
-      <c r="G11">
-        <v>4076.7246217983202</v>
-      </c>
-      <c r="H11">
-        <v>4374.5405485191104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41944</v>
       </c>
@@ -758,20 +613,8 @@
       <c r="D12">
         <v>4088.6106492005401</v>
       </c>
-      <c r="E12">
-        <v>4996.2502143448801</v>
-      </c>
-      <c r="F12">
-        <v>3658.2366997700401</v>
-      </c>
-      <c r="G12">
-        <v>4113.0266633618403</v>
-      </c>
-      <c r="H12">
-        <v>4352.3147472814398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41974</v>
       </c>
@@ -784,20 +627,8 @@
       <c r="D13">
         <v>4120.7354114544196</v>
       </c>
-      <c r="E13">
-        <v>5075.8828884634304</v>
-      </c>
-      <c r="F13">
-        <v>3677.81789615767</v>
-      </c>
-      <c r="G13">
-        <v>4143.4875258004604</v>
-      </c>
-      <c r="H13">
-        <v>4380.1225711299803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42005</v>
       </c>
@@ -810,20 +641,8 @@
       <c r="D14">
         <v>4139.0487537722302</v>
       </c>
-      <c r="E14">
-        <v>5070.2683762995603</v>
-      </c>
-      <c r="F14">
-        <v>3732.4140738266701</v>
-      </c>
-      <c r="G14">
-        <v>4129.9505655012699</v>
-      </c>
-      <c r="H14">
-        <v>4399.3566156315601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42036</v>
       </c>
@@ -836,20 +655,8 @@
       <c r="D15">
         <v>4136.6937005965201</v>
       </c>
-      <c r="E15">
-        <v>4963.1709332237197</v>
-      </c>
-      <c r="F15">
-        <v>3750.9722213487598</v>
-      </c>
-      <c r="G15">
-        <v>4133.5675701875098</v>
-      </c>
-      <c r="H15">
-        <v>4452.5676761313898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42064</v>
       </c>
@@ -862,20 +669,8 @@
       <c r="D16">
         <v>4133.8687388171602</v>
       </c>
-      <c r="E16">
-        <v>4855.4645806057597</v>
-      </c>
-      <c r="F16">
-        <v>3782.0589228744102</v>
-      </c>
-      <c r="G16">
-        <v>4131.2854487561399</v>
-      </c>
-      <c r="H16">
-        <v>4467.3450142799102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42095</v>
       </c>
@@ -888,20 +683,8 @@
       <c r="D17">
         <v>4172.5165177947401</v>
       </c>
-      <c r="E17">
-        <v>4927.9539201142898</v>
-      </c>
-      <c r="F17">
-        <v>3800.8952810394298</v>
-      </c>
-      <c r="G17">
-        <v>4185.3082560287603</v>
-      </c>
-      <c r="H17">
-        <v>4476.2909745504203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42125</v>
       </c>
@@ -914,20 +697,8 @@
       <c r="D18">
         <v>4178.7807885277798</v>
       </c>
-      <c r="E18">
-        <v>4895.4789302775398</v>
-      </c>
-      <c r="F18">
-        <v>3776.4208457919699</v>
-      </c>
-      <c r="G18">
-        <v>4226.4684269625404</v>
-      </c>
-      <c r="H18">
-        <v>4555.9305911900401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42156</v>
       </c>
@@ -940,20 +711,8 @@
       <c r="D19">
         <v>4179.5322464902001</v>
       </c>
-      <c r="E19">
-        <v>4882.6237326128303</v>
-      </c>
-      <c r="F19">
-        <v>3739.5347677495802</v>
-      </c>
-      <c r="G19">
-        <v>4253.4216557540703</v>
-      </c>
-      <c r="H19">
-        <v>4653.2891246540803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42186</v>
       </c>
@@ -966,20 +725,8 @@
       <c r="D20">
         <v>4200.1719923497003</v>
       </c>
-      <c r="E20">
-        <v>4828.8281620995303</v>
-      </c>
-      <c r="F20">
-        <v>3744.74491398686</v>
-      </c>
-      <c r="G20">
-        <v>4287.2478477781897</v>
-      </c>
-      <c r="H20">
-        <v>4826.8637822099599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42217</v>
       </c>
@@ -992,20 +739,8 @@
       <c r="D21">
         <v>4195.9559449844201</v>
       </c>
-      <c r="E21">
-        <v>4804.5001318243403</v>
-      </c>
-      <c r="F21">
-        <v>3718.9269530891602</v>
-      </c>
-      <c r="G21">
-        <v>4282.0412500777402</v>
-      </c>
-      <c r="H21">
-        <v>4967.6112874604396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42248</v>
       </c>
@@ -1018,20 +753,8 @@
       <c r="D22">
         <v>4192.1414556926502</v>
       </c>
-      <c r="E22">
-        <v>4811.5980160662803</v>
-      </c>
-      <c r="F22">
-        <v>3703.5722008071598</v>
-      </c>
-      <c r="G22">
-        <v>4283.2040651432098</v>
-      </c>
-      <c r="H22">
-        <v>4979.0976732015697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42278</v>
       </c>
@@ -1044,20 +767,8 @@
       <c r="D23">
         <v>4193.4569885462197</v>
       </c>
-      <c r="E23">
-        <v>4825.0528421844401</v>
-      </c>
-      <c r="F23">
-        <v>3712.0635049859402</v>
-      </c>
-      <c r="G23">
-        <v>4271.3385495584098</v>
-      </c>
-      <c r="H23">
-        <v>4978.3667016904101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42309</v>
       </c>
@@ -1070,20 +781,8 @@
       <c r="D24">
         <v>4196.8320168093796</v>
       </c>
-      <c r="E24">
-        <v>4799.7772134217603</v>
-      </c>
-      <c r="F24">
-        <v>3733.3703363555601</v>
-      </c>
-      <c r="G24">
-        <v>4278.2815431786903</v>
-      </c>
-      <c r="H24">
-        <v>4932.32410743942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42339</v>
       </c>
@@ -1096,20 +795,8 @@
       <c r="D25">
         <v>4234.8432040993803</v>
       </c>
-      <c r="E25">
-        <v>4791.1999194740001</v>
-      </c>
-      <c r="F25">
-        <v>3825.2727129894301</v>
-      </c>
-      <c r="G25">
-        <v>4274.0505207632305</v>
-      </c>
-      <c r="H25">
-        <v>4969.5930210899596</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42370</v>
       </c>
@@ -1122,20 +809,8 @@
       <c r="D26">
         <v>4253.4807707916898</v>
       </c>
-      <c r="E26">
-        <v>4839.0464841665398</v>
-      </c>
-      <c r="F26">
-        <v>3880.8031428231998</v>
-      </c>
-      <c r="G26">
-        <v>4257.9211736504903</v>
-      </c>
-      <c r="H26">
-        <v>4919.66994378667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42401</v>
       </c>
@@ -1148,20 +823,8 @@
       <c r="D27">
         <v>4273.0688369449599</v>
       </c>
-      <c r="E27">
-        <v>4901.0247298353497</v>
-      </c>
-      <c r="F27">
-        <v>3926.66221905885</v>
-      </c>
-      <c r="G27">
-        <v>4245.46982660719</v>
-      </c>
-      <c r="H27">
-        <v>4885.64861032726</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42430</v>
       </c>
@@ -1174,20 +837,8 @@
       <c r="D28">
         <v>4293.3330775451705</v>
       </c>
-      <c r="E28">
-        <v>4953.8205229964396</v>
-      </c>
-      <c r="F28">
-        <v>3959.0143206644002</v>
-      </c>
-      <c r="G28">
-        <v>4243.0522215619103</v>
-      </c>
-      <c r="H28">
-        <v>4892.9624082991804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42461</v>
       </c>
@@ -1200,20 +851,8 @@
       <c r="D29">
         <v>4286.6226970282196</v>
       </c>
-      <c r="E29">
-        <v>4916.8710014996996</v>
-      </c>
-      <c r="F29">
-        <v>3957.1462221451202</v>
-      </c>
-      <c r="G29">
-        <v>4243.7382650117097</v>
-      </c>
-      <c r="H29">
-        <v>4882.9053402019399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42491</v>
       </c>
@@ -1226,20 +865,8 @@
       <c r="D30">
         <v>4270.4912301454897</v>
       </c>
-      <c r="E30">
-        <v>4885.09882138785</v>
-      </c>
-      <c r="F30">
-        <v>3953.5927401592398</v>
-      </c>
-      <c r="G30">
-        <v>4228.8959077310801</v>
-      </c>
-      <c r="H30">
-        <v>4831.2360714589104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42522</v>
       </c>
@@ -1252,20 +879,8 @@
       <c r="D31">
         <v>4237.07411663106</v>
       </c>
-      <c r="E31">
-        <v>4822.42539460029</v>
-      </c>
-      <c r="F31">
-        <v>3924.07504316118</v>
-      </c>
-      <c r="G31">
-        <v>4205.7259645701597</v>
-      </c>
-      <c r="H31">
-        <v>4785.6516140325402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42552</v>
       </c>
@@ -1278,20 +893,8 @@
       <c r="D32">
         <v>4205.5582020953398</v>
       </c>
-      <c r="E32">
-        <v>4763.0844709397497</v>
-      </c>
-      <c r="F32">
-        <v>3880.3083653303202</v>
-      </c>
-      <c r="G32">
-        <v>4204.4236101583001</v>
-      </c>
-      <c r="H32">
-        <v>4729.5554550997003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42583</v>
       </c>
@@ -1304,20 +907,8 @@
       <c r="D33">
         <v>4171.1862768093597</v>
       </c>
-      <c r="E33">
-        <v>4708.5400256552402</v>
-      </c>
-      <c r="F33">
-        <v>3826.8951789780399</v>
-      </c>
-      <c r="G33">
-        <v>4203.1206309950703</v>
-      </c>
-      <c r="H33">
-        <v>4676.7117584302896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42614</v>
       </c>
@@ -1330,20 +921,8 @@
       <c r="D34">
         <v>4158.4506360344503</v>
       </c>
-      <c r="E34">
-        <v>4688.2340484798096</v>
-      </c>
-      <c r="F34">
-        <v>3815.9132620817099</v>
-      </c>
-      <c r="G34">
-        <v>4199.1920721244496</v>
-      </c>
-      <c r="H34">
-        <v>4632.6318166374604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42644</v>
       </c>
@@ -1356,20 +935,8 @@
       <c r="D35">
         <v>4136.22453627494</v>
       </c>
-      <c r="E35">
-        <v>4656.4408890979903</v>
-      </c>
-      <c r="F35">
-        <v>3810.7619864313301</v>
-      </c>
-      <c r="G35">
-        <v>4169.5252735679596</v>
-      </c>
-      <c r="H35">
-        <v>4580.9727711750802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42675</v>
       </c>
@@ -1382,20 +949,8 @@
       <c r="D36">
         <v>4126.9582130561203</v>
       </c>
-      <c r="E36">
-        <v>4597.6728409780299</v>
-      </c>
-      <c r="F36">
-        <v>3824.75561543701</v>
-      </c>
-      <c r="G36">
-        <v>4156.2091307344199</v>
-      </c>
-      <c r="H36">
-        <v>4564.4977793174303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42705</v>
       </c>
@@ -1408,20 +963,8 @@
       <c r="D37">
         <v>4121.8313494844497</v>
       </c>
-      <c r="E37">
-        <v>4577.79920159631</v>
-      </c>
-      <c r="F37">
-        <v>3827.5876849126698</v>
-      </c>
-      <c r="G37">
-        <v>4148.3018335684801</v>
-      </c>
-      <c r="H37">
-        <v>4559.1038598771302</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42736</v>
       </c>
@@ -1435,22 +978,10 @@
         <v>4131.9882846855498</v>
       </c>
       <c r="E38">
-        <v>4578.0444080431098</v>
-      </c>
-      <c r="F38">
-        <v>3832.4131770384402</v>
-      </c>
-      <c r="G38">
-        <v>4168.7965534680798</v>
-      </c>
-      <c r="H38">
-        <v>4566.1905281469699</v>
-      </c>
-      <c r="I38">
         <v>16.726597167597401</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42767</v>
       </c>
@@ -1464,22 +995,10 @@
         <v>4140.8744538634</v>
       </c>
       <c r="E39">
-        <v>4558.0676167577303</v>
-      </c>
-      <c r="F39">
-        <v>3833.7070432621799</v>
-      </c>
-      <c r="G39">
-        <v>4201.7845287895598</v>
-      </c>
-      <c r="H39">
-        <v>4554.5303416689403</v>
-      </c>
-      <c r="I39">
         <v>16.7186411674511</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42795</v>
       </c>
@@ -1493,22 +1012,10 @@
         <v>4133.1860464888796</v>
       </c>
       <c r="E40">
-        <v>4458.6162838313803</v>
-      </c>
-      <c r="F40">
-        <v>3840.3191902232802</v>
-      </c>
-      <c r="G40">
-        <v>4211.0961342287301</v>
-      </c>
-      <c r="H40">
-        <v>4557.8543700875098</v>
-      </c>
-      <c r="I40">
         <v>16.6943503966022</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42826</v>
       </c>
@@ -1522,22 +1029,10 @@
         <v>4136.3826293759803</v>
       </c>
       <c r="E41">
-        <v>4461.4339087080498</v>
-      </c>
-      <c r="F41">
-        <v>3836.94827634273</v>
-      </c>
-      <c r="G41">
-        <v>4224.12693738704</v>
-      </c>
-      <c r="H41">
-        <v>4550.2755769107598</v>
-      </c>
-      <c r="I41">
         <v>16.577952566232302</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42856</v>
       </c>
@@ -1551,22 +1046,10 @@
         <v>4150.9968645539802</v>
       </c>
       <c r="E42">
-        <v>4483.5910666726004</v>
-      </c>
-      <c r="F42">
-        <v>3851.5297893196498</v>
-      </c>
-      <c r="G42">
-        <v>4225.7863755319704</v>
-      </c>
-      <c r="H42">
-        <v>4608.8632989280704</v>
-      </c>
-      <c r="I42">
         <v>16.414963003373899</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42887</v>
       </c>
@@ -1580,22 +1063,10 @@
         <v>4157.2053438449102</v>
       </c>
       <c r="E43">
-        <v>4502.5579125896402</v>
-      </c>
-      <c r="F43">
-        <v>3851.2343835842898</v>
-      </c>
-      <c r="G43">
-        <v>4226.9631407256702</v>
-      </c>
-      <c r="H43">
-        <v>4647.0495106642302</v>
-      </c>
-      <c r="I43">
         <v>16.204409101643101</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42917</v>
       </c>
@@ -1609,22 +1080,10 @@
         <v>4147.9270883373101</v>
       </c>
       <c r="E44">
-        <v>4453.0690558812103</v>
-      </c>
-      <c r="F44">
-        <v>3853.93541524273</v>
-      </c>
-      <c r="G44">
-        <v>4211.8225852488004</v>
-      </c>
-      <c r="H44">
-        <v>4673.5087719123903</v>
-      </c>
-      <c r="I44">
         <v>16.018428558755001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42948</v>
       </c>
@@ -1638,22 +1097,10 @@
         <v>4127.7395407487202</v>
       </c>
       <c r="E45">
-        <v>4373.5922505125</v>
-      </c>
-      <c r="F45">
-        <v>3854.3038455251299</v>
-      </c>
-      <c r="G45">
-        <v>4196.5216518228899</v>
-      </c>
-      <c r="H45">
-        <v>4632.6902684467304</v>
-      </c>
-      <c r="I45">
         <v>15.986339179385901</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42979</v>
       </c>
@@ -1667,22 +1114,10 @@
         <v>4126.1258351267197</v>
       </c>
       <c r="E46">
-        <v>4302.29834114391</v>
-      </c>
-      <c r="F46">
-        <v>3864.8096664047298</v>
-      </c>
-      <c r="G46">
-        <v>4211.6013909044896</v>
-      </c>
-      <c r="H46">
-        <v>4616.5860156114104</v>
-      </c>
-      <c r="I46">
         <v>16.034680891757102</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43009</v>
       </c>
@@ -1696,22 +1131,10 @@
         <v>4134.5267927362702</v>
       </c>
       <c r="E47">
-        <v>4258.9003287709102</v>
-      </c>
-      <c r="F47">
-        <v>3870.35557250598</v>
-      </c>
-      <c r="G47">
-        <v>4243.9110331369202</v>
-      </c>
-      <c r="H47">
-        <v>4621.0309915870503</v>
-      </c>
-      <c r="I47">
         <v>16.230721447862699</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43040</v>
       </c>
@@ -1725,22 +1148,10 @@
         <v>4148.28859414607</v>
       </c>
       <c r="E48">
-        <v>4263.0695270142996</v>
-      </c>
-      <c r="F48">
-        <v>3869.6226788476902</v>
-      </c>
-      <c r="G48">
-        <v>4273.3069322378697</v>
-      </c>
-      <c r="H48">
-        <v>4652.2952821836898</v>
-      </c>
-      <c r="I48">
         <v>16.258922939835902</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43070</v>
       </c>
@@ -1754,22 +1165,10 @@
         <v>4167.2415213594604</v>
       </c>
       <c r="E49">
-        <v>4300.9497630983897</v>
-      </c>
-      <c r="F49">
-        <v>3885.6328124369702</v>
-      </c>
-      <c r="G49">
-        <v>4286.5786147418303</v>
-      </c>
-      <c r="H49">
-        <v>4678.057433121</v>
-      </c>
-      <c r="I49">
         <v>16.289096976385999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43101</v>
       </c>
@@ -1783,22 +1182,10 @@
         <v>4171.3997023628799</v>
       </c>
       <c r="E50">
-        <v>4317.5610038110099</v>
-      </c>
-      <c r="F50">
-        <v>3890.2883352662998</v>
-      </c>
-      <c r="G50">
-        <v>4285.4193888331702</v>
-      </c>
-      <c r="H50">
-        <v>4680.3105465032104</v>
-      </c>
-      <c r="I50">
         <v>16.362686787391301</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43132</v>
       </c>
@@ -1812,22 +1199,10 @@
         <v>4173.18956124548</v>
       </c>
       <c r="E51">
-        <v>4362.3614560926098</v>
-      </c>
-      <c r="F51">
-        <v>3899.50520689317</v>
-      </c>
-      <c r="G51">
-        <v>4261.4223321032696</v>
-      </c>
-      <c r="H51">
-        <v>4679.02881560479</v>
-      </c>
-      <c r="I51">
         <v>16.632074027903499</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43160</v>
       </c>
@@ -1841,22 +1216,10 @@
         <v>4161.6076405923004</v>
       </c>
       <c r="E52">
-        <v>4395.2649580819598</v>
-      </c>
-      <c r="F52">
-        <v>3878.1176175215201</v>
-      </c>
-      <c r="G52">
-        <v>4241.3334627202403</v>
-      </c>
-      <c r="H52">
-        <v>4673.6903155917598</v>
-      </c>
-      <c r="I52">
         <v>16.940394046841998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43191</v>
       </c>
@@ -1870,22 +1233,10 @@
         <v>4172.5829836580097</v>
       </c>
       <c r="E53">
-        <v>4470.4370481496098</v>
-      </c>
-      <c r="F53">
-        <v>3910.31029861876</v>
-      </c>
-      <c r="G53">
-        <v>4199.42271733702</v>
-      </c>
-      <c r="H53">
-        <v>4690.4741891699896</v>
-      </c>
-      <c r="I53">
         <v>17.1475352535235</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43221</v>
       </c>
@@ -1899,22 +1250,10 @@
         <v>4181.3908436026104</v>
       </c>
       <c r="E54">
-        <v>4540.2462374238703</v>
-      </c>
-      <c r="F54">
-        <v>3918.6114732625001</v>
-      </c>
-      <c r="G54">
-        <v>4189.7162712672798</v>
-      </c>
-      <c r="H54">
-        <v>4673.45885584198</v>
-      </c>
-      <c r="I54">
         <v>17.225624734757101</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43252</v>
       </c>
@@ -1928,22 +1267,10 @@
         <v>4194.3062540519004</v>
       </c>
       <c r="E55">
-        <v>4595.7478840635604</v>
-      </c>
-      <c r="F55">
-        <v>3942.5048893528701</v>
-      </c>
-      <c r="G55">
-        <v>4186.2093692438402</v>
-      </c>
-      <c r="H55">
-        <v>4628.4051008611696</v>
-      </c>
-      <c r="I55">
         <v>17.173972103044601</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43282</v>
       </c>
@@ -1957,22 +1284,10 @@
         <v>4211.2824970373103</v>
       </c>
       <c r="E56">
-        <v>4689.7694353225797</v>
-      </c>
-      <c r="F56">
-        <v>3952.9153249145202</v>
-      </c>
-      <c r="G56">
-        <v>4197.8243796533397</v>
-      </c>
-      <c r="H56">
-        <v>4567.0527881537801</v>
-      </c>
-      <c r="I56">
         <v>17.0536230604372</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43313</v>
       </c>
@@ -1986,22 +1301,10 @@
         <v>4224.0463468289499</v>
       </c>
       <c r="E57">
-        <v>4766.49879259713</v>
-      </c>
-      <c r="F57">
-        <v>3968.4098192680099</v>
-      </c>
-      <c r="G57">
-        <v>4201.6841157971803</v>
-      </c>
-      <c r="H57">
-        <v>4494.0192416923301</v>
-      </c>
-      <c r="I57">
         <v>16.900920152738099</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43344</v>
       </c>
@@ -2015,22 +1318,10 @@
         <v>4238.0317335592799</v>
       </c>
       <c r="E58">
-        <v>4864.7951225750203</v>
-      </c>
-      <c r="F58">
-        <v>3993.51600413193</v>
-      </c>
-      <c r="G58">
-        <v>4182.8973680650797</v>
-      </c>
-      <c r="H58">
-        <v>4445.2759404873304</v>
-      </c>
-      <c r="I58">
         <v>16.832270749468499</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43374</v>
       </c>
@@ -2044,22 +1335,10 @@
         <v>4247.5546174156498</v>
       </c>
       <c r="E59">
-        <v>4899.8720558681398</v>
-      </c>
-      <c r="F59">
-        <v>4015.3119221692</v>
-      </c>
-      <c r="G59">
-        <v>4178.32767544537</v>
-      </c>
-      <c r="H59">
-        <v>4410.1934491887196</v>
-      </c>
-      <c r="I59">
         <v>16.907049222336301</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43405</v>
       </c>
@@ -2073,22 +1352,10 @@
         <v>4254.9809780579299</v>
       </c>
       <c r="E60">
-        <v>4935.2033048804597</v>
-      </c>
-      <c r="F60">
-        <v>4022.91130932855</v>
-      </c>
-      <c r="G60">
-        <v>4170.2598472510499</v>
-      </c>
-      <c r="H60">
-        <v>4432.5576470453097</v>
-      </c>
-      <c r="I60">
         <v>16.980397517855799</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43435</v>
       </c>
@@ -2102,22 +1369,10 @@
         <v>4271.3281147930102</v>
       </c>
       <c r="E61">
-        <v>4940.5596827309801</v>
-      </c>
-      <c r="F61">
-        <v>4040.2842403085401</v>
-      </c>
-      <c r="G61">
-        <v>4185.8325120413801</v>
-      </c>
-      <c r="H61">
-        <v>4465.4334712513901</v>
-      </c>
-      <c r="I61">
         <v>17.131637889724399</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43466</v>
       </c>
@@ -2131,22 +1386,10 @@
         <v>4300.9603751403301</v>
       </c>
       <c r="E62">
-        <v>4953.8479580182802</v>
-      </c>
-      <c r="F62">
-        <v>4056.36231759881</v>
-      </c>
-      <c r="G62">
-        <v>4234.9744315407197</v>
-      </c>
-      <c r="H62">
-        <v>4501.7261600999</v>
-      </c>
-      <c r="I62">
         <v>17.182097888385801</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43497</v>
       </c>
@@ -2160,22 +1403,10 @@
         <v>4341.6030679600799</v>
       </c>
       <c r="E63">
-        <v>4975.3853946687304</v>
-      </c>
-      <c r="F63">
-        <v>4115.0035633290699</v>
-      </c>
-      <c r="G63">
-        <v>4267.6891041322096</v>
-      </c>
-      <c r="H63">
-        <v>4529.0957521933697</v>
-      </c>
-      <c r="I63">
         <v>17.198681951908998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43525</v>
       </c>
@@ -2189,22 +1420,10 @@
         <v>4353.7948758681596</v>
       </c>
       <c r="E64">
-        <v>5007.4397211067799</v>
-      </c>
-      <c r="F64">
-        <v>4136.8876702810303</v>
-      </c>
-      <c r="G64">
-        <v>4271.7800297291096</v>
-      </c>
-      <c r="H64">
-        <v>4499.2263265665697</v>
-      </c>
-      <c r="I64">
         <v>17.191342428111401</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43556</v>
       </c>
@@ -2218,22 +1437,10 @@
         <v>4387.9160178054399</v>
       </c>
       <c r="E65">
-        <v>5025.4537583620904</v>
-      </c>
-      <c r="F65">
-        <v>4201.7620498607903</v>
-      </c>
-      <c r="G65">
-        <v>4288.4025860045103</v>
-      </c>
-      <c r="H65">
-        <v>4497.6283720957399</v>
-      </c>
-      <c r="I65">
         <v>17.211252140390499</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43586</v>
       </c>
@@ -2247,22 +1454,10 @@
         <v>4364.33684664678</v>
       </c>
       <c r="E66">
-        <v>5009.6613585946197</v>
-      </c>
-      <c r="F66">
-        <v>4163.0127534261201</v>
-      </c>
-      <c r="G66">
-        <v>4270.2776460756704</v>
-      </c>
-      <c r="H66">
-        <v>4504.68159619584</v>
-      </c>
-      <c r="I66">
         <v>17.350397589362899</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43617</v>
       </c>
@@ -2276,22 +1471,10 @@
         <v>4354.9335985049202</v>
       </c>
       <c r="E67">
-        <v>5008.3253875062101</v>
-      </c>
-      <c r="F67">
-        <v>4157.8739299319604</v>
-      </c>
-      <c r="G67">
-        <v>4240.3130462609497</v>
-      </c>
-      <c r="H67">
-        <v>4545.9160323870901</v>
-      </c>
-      <c r="I67">
         <v>17.463664311160901</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43647</v>
       </c>
@@ -2305,22 +1488,10 @@
         <v>4333.93082284108</v>
       </c>
       <c r="E68">
-        <v>4998.99657268379</v>
-      </c>
-      <c r="F68">
-        <v>4118.8520654649001</v>
-      </c>
-      <c r="G68">
-        <v>4223.5387088157904</v>
-      </c>
-      <c r="H68">
-        <v>4566.2346518985896</v>
-      </c>
-      <c r="I68">
         <v>17.3709290759653</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43678</v>
       </c>
@@ -2334,22 +1505,10 @@
         <v>4348.4057557448396</v>
       </c>
       <c r="E69">
-        <v>4985.7682581261197</v>
-      </c>
-      <c r="F69">
-        <v>4133.42182422114</v>
-      </c>
-      <c r="G69">
-        <v>4244.2870658339898</v>
-      </c>
-      <c r="H69">
-        <v>4600.8032156081999</v>
-      </c>
-      <c r="I69">
         <v>17.341080842107001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43709</v>
       </c>
@@ -2363,22 +1522,10 @@
         <v>4334.0517463934902</v>
       </c>
       <c r="E70">
-        <v>4944.45030293126</v>
-      </c>
-      <c r="F70">
-        <v>4124.0884281807503</v>
-      </c>
-      <c r="G70">
-        <v>4237.9882708937103</v>
-      </c>
-      <c r="H70">
-        <v>4577.6898119561401</v>
-      </c>
-      <c r="I70">
         <v>17.348904477479799</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43739</v>
       </c>
@@ -2392,22 +1539,10 @@
         <v>4320.1237680976601</v>
       </c>
       <c r="E71">
-        <v>4885.1528626573399</v>
-      </c>
-      <c r="F71">
-        <v>4138.0111236288303</v>
-      </c>
-      <c r="G71">
-        <v>4209.9846309223403</v>
-      </c>
-      <c r="H71">
-        <v>4573.2754705970101</v>
-      </c>
-      <c r="I71">
         <v>17.5930714126551</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43770</v>
       </c>
@@ -2421,22 +1556,10 @@
         <v>4303.4290607984003</v>
       </c>
       <c r="E72">
-        <v>4847.5963741641099</v>
-      </c>
-      <c r="F72">
-        <v>4134.6881504228104</v>
-      </c>
-      <c r="G72">
-        <v>4176.6661235343099</v>
-      </c>
-      <c r="H72">
-        <v>4599.3007410547698</v>
-      </c>
-      <c r="I72">
         <v>17.581067011005899</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43800</v>
       </c>
@@ -2450,22 +1573,10 @@
         <v>4302.6222830455899</v>
       </c>
       <c r="E73">
-        <v>4856.8638501838404</v>
-      </c>
-      <c r="F73">
-        <v>4115.2858649753898</v>
-      </c>
-      <c r="G73">
-        <v>4171.3229656991898</v>
-      </c>
-      <c r="H73">
-        <v>4682.5088581024202</v>
-      </c>
-      <c r="I73">
         <v>17.552804778716499</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43831</v>
       </c>
@@ -2479,22 +1590,10 @@
         <v>4327.5606835639401</v>
       </c>
       <c r="E74">
-        <v>4898.94778281044</v>
-      </c>
-      <c r="F74">
-        <v>4118.0520958829402</v>
-      </c>
-      <c r="G74">
-        <v>4210.1002161926299</v>
-      </c>
-      <c r="H74">
-        <v>4718.5754134222097</v>
-      </c>
-      <c r="I74">
         <v>17.826425980272099</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43862</v>
       </c>
@@ -2508,22 +1607,10 @@
         <v>4333.9074601236898</v>
       </c>
       <c r="E75">
-        <v>4867.9404318832303</v>
-      </c>
-      <c r="F75">
-        <v>4124.2760131468303</v>
-      </c>
-      <c r="G75">
-        <v>4240.82640104435</v>
-      </c>
-      <c r="H75">
-        <v>4694.53429308872</v>
-      </c>
-      <c r="I75">
         <v>17.913598459278798</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43891</v>
       </c>
@@ -2537,22 +1624,10 @@
         <v>4324.9948302965004</v>
       </c>
       <c r="E76">
-        <v>4835.6867517296596</v>
-      </c>
-      <c r="F76">
-        <v>4125.4695947262499</v>
-      </c>
-      <c r="G76">
-        <v>4232.8124568378398</v>
-      </c>
-      <c r="H76">
-        <v>4679.2947088711499</v>
-      </c>
-      <c r="I76">
         <v>17.9838857845089</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43922</v>
       </c>
@@ -2566,22 +1641,10 @@
         <v>4327.8275979026103</v>
       </c>
       <c r="E77">
-        <v>4835.2668629338796</v>
-      </c>
-      <c r="F77">
-        <v>4141.2675046296299</v>
-      </c>
-      <c r="G77">
-        <v>4227.0394648613901</v>
-      </c>
-      <c r="H77">
-        <v>4665.8493854669296</v>
-      </c>
-      <c r="I77">
         <v>17.7413989916354</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43952</v>
       </c>
@@ -2595,22 +1658,10 @@
         <v>4321.5575069726301</v>
       </c>
       <c r="E78">
-        <v>4852.6056155688802</v>
-      </c>
-      <c r="F78">
-        <v>4146.7403630553599</v>
-      </c>
-      <c r="G78">
-        <v>4191.0365318461199</v>
-      </c>
-      <c r="H78">
-        <v>4685.0464906204697</v>
-      </c>
-      <c r="I78">
         <v>17.8283934418676</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43983</v>
       </c>
@@ -2624,22 +1675,10 @@
         <v>4333.2524451249801</v>
       </c>
       <c r="E79">
-        <v>4846.3264685734503</v>
-      </c>
-      <c r="F79">
-        <v>4145.3973897701699</v>
-      </c>
-      <c r="G79">
-        <v>4221.1504122363403</v>
-      </c>
-      <c r="H79">
-        <v>4711.83099866266</v>
-      </c>
-      <c r="I79">
         <v>18.048769000444601</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44013</v>
       </c>
@@ -2653,22 +1692,10 @@
         <v>4344.4219726593501</v>
       </c>
       <c r="E80">
-        <v>4832.0002427839099</v>
-      </c>
-      <c r="F80">
-        <v>4137.87326990576</v>
-      </c>
-      <c r="G80">
-        <v>4249.8681910796004</v>
-      </c>
-      <c r="H80">
-        <v>4779.22790509882</v>
-      </c>
-      <c r="I80">
         <v>18.335066574294999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44044</v>
       </c>
@@ -2682,22 +1709,10 @@
         <v>4366.9318158404203</v>
       </c>
       <c r="E81">
-        <v>4804.6887866645602</v>
-      </c>
-      <c r="F81">
-        <v>4141.5060545204096</v>
-      </c>
-      <c r="G81">
-        <v>4305.7895240357902</v>
-      </c>
-      <c r="H81">
-        <v>4838.7133724444602</v>
-      </c>
-      <c r="I81">
         <v>18.374513361878201</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44075</v>
       </c>
@@ -2711,22 +1726,10 @@
         <v>4393.6343075066998</v>
       </c>
       <c r="E82">
-        <v>4810.7482644145202</v>
-      </c>
-      <c r="F82">
-        <v>4167.9901337432802</v>
-      </c>
-      <c r="G82">
-        <v>4342.9417051523797</v>
-      </c>
-      <c r="H82">
-        <v>4861.3749028352704</v>
-      </c>
-      <c r="I82">
         <v>18.323363775124101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44105</v>
       </c>
@@ -2740,22 +1743,10 @@
         <v>4428.6074545478104</v>
       </c>
       <c r="E83">
-        <v>4843.6817491742404</v>
-      </c>
-      <c r="F83">
-        <v>4199.3985571974799</v>
-      </c>
-      <c r="G83">
-        <v>4383.9662742166001</v>
-      </c>
-      <c r="H83">
-        <v>4891.5684714193303</v>
-      </c>
-      <c r="I83">
         <v>18.611521428842298</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44136</v>
       </c>
@@ -2769,22 +1760,10 @@
         <v>4471.5399544646898</v>
       </c>
       <c r="E84">
-        <v>4957.3528857248702</v>
-      </c>
-      <c r="F84">
-        <v>4232.3032972763503</v>
-      </c>
-      <c r="G84">
-        <v>4410.1605661808999</v>
-      </c>
-      <c r="H84">
-        <v>4920.1402523947099</v>
-      </c>
-      <c r="I84">
         <v>18.8294612085914</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44166</v>
       </c>
@@ -2798,22 +1777,10 @@
         <v>4508.9601662749601</v>
       </c>
       <c r="E85">
-        <v>5097.6720437293598</v>
-      </c>
-      <c r="F85">
-        <v>4259.4755363026097</v>
-      </c>
-      <c r="G85">
-        <v>4409.8768599266796</v>
-      </c>
-      <c r="H85">
-        <v>4970.6780640459801</v>
-      </c>
-      <c r="I85">
         <v>19.1094466414267</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44197</v>
       </c>
@@ -2827,22 +1794,10 @@
         <v>4542.5233981592901</v>
       </c>
       <c r="E86">
-        <v>5173.67335552441</v>
-      </c>
-      <c r="F86">
-        <v>4278.4549791039799</v>
-      </c>
-      <c r="G86">
-        <v>4427.9266511441901</v>
-      </c>
-      <c r="H86">
-        <v>5058.1192663854699</v>
-      </c>
-      <c r="I86">
         <v>19.049440448002802</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44228</v>
       </c>
@@ -2856,22 +1811,10 @@
         <v>4553.9777462922702</v>
       </c>
       <c r="E87">
-        <v>5176.7170941220802</v>
-      </c>
-      <c r="F87">
-        <v>4308.2512091526996</v>
-      </c>
-      <c r="G87">
-        <v>4429.7530350560301</v>
-      </c>
-      <c r="H87">
-        <v>5042.2201026304301</v>
-      </c>
-      <c r="I87">
         <v>18.958106215224898</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44256</v>
       </c>
@@ -2885,22 +1828,10 @@
         <v>4584.3620542946501</v>
       </c>
       <c r="E88">
-        <v>5158.7870097085897</v>
-      </c>
-      <c r="F88">
-        <v>4341.2882328423102</v>
-      </c>
-      <c r="G88">
-        <v>4481.6581721446801</v>
-      </c>
-      <c r="H88">
-        <v>5056.1232589916499</v>
-      </c>
-      <c r="I88">
         <v>18.687451507442098</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44287</v>
       </c>
@@ -2914,22 +1845,10 @@
         <v>4602.8845226124704</v>
       </c>
       <c r="E89">
-        <v>5182.9560197608698</v>
-      </c>
-      <c r="F89">
-        <v>4365.58818503984</v>
-      </c>
-      <c r="G89">
-        <v>4511.1822071487504</v>
-      </c>
-      <c r="H89">
-        <v>4995.9581329222701</v>
-      </c>
-      <c r="I89">
         <v>18.574256472100998</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44317</v>
       </c>
@@ -2943,22 +1862,10 @@
         <v>4667.5224127789797</v>
       </c>
       <c r="E90">
-        <v>5248.2207054386799</v>
-      </c>
-      <c r="F90">
-        <v>4430.8315171615004</v>
-      </c>
-      <c r="G90">
-        <v>4571.2702090112598</v>
-      </c>
-      <c r="H90">
-        <v>5074.6327876809501</v>
-      </c>
-      <c r="I90">
         <v>18.726257296294701</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44348</v>
       </c>
@@ -2972,22 +1879,10 @@
         <v>4732.79854394424</v>
       </c>
       <c r="E91">
-        <v>5281.6180985023602</v>
-      </c>
-      <c r="F91">
-        <v>4524.87586149035</v>
-      </c>
-      <c r="G91">
-        <v>4622.2950560024201</v>
-      </c>
-      <c r="H91">
-        <v>5124.6966176453298</v>
-      </c>
-      <c r="I91">
         <v>18.939129817845899</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44378</v>
       </c>
@@ -3001,22 +1896,10 @@
         <v>4815.4814056629402</v>
       </c>
       <c r="E92">
-        <v>5206.3670630445404</v>
-      </c>
-      <c r="F92">
-        <v>4660.5143445777903</v>
-      </c>
-      <c r="G92">
-        <v>4706.2178823627601</v>
-      </c>
-      <c r="H92">
-        <v>5236.74120650641</v>
-      </c>
-      <c r="I92">
         <v>19.2687457997074</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44409</v>
       </c>
@@ -3030,22 +1913,10 @@
         <v>4882.2529360254503</v>
       </c>
       <c r="E93">
-        <v>5164.0478236319104</v>
-      </c>
-      <c r="F93">
-        <v>4769.6579894615397</v>
-      </c>
-      <c r="G93">
-        <v>4776.6261622518396</v>
-      </c>
-      <c r="H93">
-        <v>5287.40694318237</v>
-      </c>
-      <c r="I93">
         <v>19.546485897810498</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44440</v>
       </c>
@@ -3059,22 +1930,10 @@
         <v>4944.9195195703096</v>
       </c>
       <c r="E94">
-        <v>5255.6774654302399</v>
-      </c>
-      <c r="F94">
-        <v>4860.0393469518604</v>
-      </c>
-      <c r="G94">
-        <v>4805.0447323632898</v>
-      </c>
-      <c r="H94">
-        <v>5317.0549091671101</v>
-      </c>
-      <c r="I94">
         <v>19.855870386562401</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44470</v>
       </c>
@@ -3088,22 +1947,10 @@
         <v>5001.9406584447997</v>
       </c>
       <c r="E95">
-        <v>5461.2650222936099</v>
-      </c>
-      <c r="F95">
-        <v>4907.7153116434301</v>
-      </c>
-      <c r="G95">
-        <v>4827.1419084240997</v>
-      </c>
-      <c r="H95">
-        <v>5304.1360819110596</v>
-      </c>
-      <c r="I95">
         <v>19.7878327285136</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44501</v>
       </c>
@@ -3117,22 +1964,10 @@
         <v>5069.3797115029702</v>
       </c>
       <c r="E96">
-        <v>5662.9834377440602</v>
-      </c>
-      <c r="F96">
-        <v>4947.7317084002798</v>
-      </c>
-      <c r="G96">
-        <v>4876.3025557396404</v>
-      </c>
-      <c r="H96">
-        <v>5337.8156132888998</v>
-      </c>
-      <c r="I96">
         <v>19.833302848351298</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44531</v>
       </c>
@@ -3146,22 +1981,10 @@
         <v>5126.6157352959699</v>
       </c>
       <c r="E97">
-        <v>5764.9811182435697</v>
-      </c>
-      <c r="F97">
-        <v>4970.0851502646701</v>
-      </c>
-      <c r="G97">
-        <v>4957.3071010745798</v>
-      </c>
-      <c r="H97">
-        <v>5376.40430446138</v>
-      </c>
-      <c r="I97">
         <v>19.8752863362973</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44562</v>
       </c>
@@ -3175,22 +1998,10 @@
         <v>5230.3730093573404</v>
       </c>
       <c r="E98">
-        <v>5898.48793739956</v>
-      </c>
-      <c r="F98">
-        <v>5053.1002417437403</v>
-      </c>
-      <c r="G98">
-        <v>5077.0659995385704</v>
-      </c>
-      <c r="H98">
-        <v>5456.0395362127201</v>
-      </c>
-      <c r="I98">
         <v>20.615584193776101</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44593</v>
       </c>
@@ -3204,22 +2015,10 @@
         <v>5348.0563618497599</v>
       </c>
       <c r="E99">
-        <v>6070.7596590306703</v>
-      </c>
-      <c r="F99">
-        <v>5177.2242260745597</v>
-      </c>
-      <c r="G99">
-        <v>5174.1218735007997</v>
-      </c>
-      <c r="H99">
-        <v>5535.6089649219703</v>
-      </c>
-      <c r="I99">
         <v>21.630712189510401</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44621</v>
       </c>
@@ -3233,22 +2032,10 @@
         <v>5482.9650471351697</v>
       </c>
       <c r="E100">
-        <v>6234.84440350572</v>
-      </c>
-      <c r="F100">
-        <v>5300.5386564872497</v>
-      </c>
-      <c r="G100">
-        <v>5313.9376534438397</v>
-      </c>
-      <c r="H100">
-        <v>5651.5983370228596</v>
-      </c>
-      <c r="I100">
         <v>22.697658274997401</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44652</v>
       </c>
@@ -3262,22 +2049,10 @@
         <v>5565.5582280960298</v>
       </c>
       <c r="E101">
-        <v>6402.8583273169697</v>
-      </c>
-      <c r="F101">
-        <v>5374.1048494084898</v>
-      </c>
-      <c r="G101">
-        <v>5374.8197637046396</v>
-      </c>
-      <c r="H101">
-        <v>5715.8133503440204</v>
-      </c>
-      <c r="I101">
         <v>23.455918969997199</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44682</v>
       </c>
@@ -3291,22 +2066,10 @@
         <v>5645.9343029560496</v>
       </c>
       <c r="E102">
-        <v>6503.0000362875599</v>
-      </c>
-      <c r="F102">
-        <v>5450.2191192042701</v>
-      </c>
-      <c r="G102">
-        <v>5450.7138604479896</v>
-      </c>
-      <c r="H102">
-        <v>5798.8309230579898</v>
-      </c>
-      <c r="I102">
         <v>23.7007085813974</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44713</v>
       </c>
@@ -3320,22 +2083,10 @@
         <v>5712.3762621352998</v>
       </c>
       <c r="E103">
-        <v>6656.26803892716</v>
-      </c>
-      <c r="F103">
-        <v>5514.6523145373303</v>
-      </c>
-      <c r="G103">
-        <v>5490.2541031276196</v>
-      </c>
-      <c r="H103">
-        <v>5834.8738102014604</v>
-      </c>
-      <c r="I103">
         <v>23.7604669794286</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44743</v>
       </c>
@@ -3349,22 +2100,10 @@
         <v>5790.7613511835398</v>
       </c>
       <c r="E104">
-        <v>6734.7113278612096</v>
-      </c>
-      <c r="F104">
-        <v>5593.4715957376202</v>
-      </c>
-      <c r="G104">
-        <v>5576.4822479476297</v>
-      </c>
-      <c r="H104">
-        <v>5879.7774450233801</v>
-      </c>
-      <c r="I104">
         <v>24.022873120816499</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44774</v>
       </c>
@@ -3378,22 +2117,10 @@
         <v>5838.4665968273503</v>
       </c>
       <c r="E105">
-        <v>6819.9191124687904</v>
-      </c>
-      <c r="F105">
-        <v>5611.5554216187602</v>
-      </c>
-      <c r="G105">
-        <v>5659.17521715154</v>
-      </c>
-      <c r="H105">
-        <v>5853.8732469555798</v>
-      </c>
-      <c r="I105">
         <v>24.5660492526718</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44805</v>
       </c>
@@ -3407,22 +2134,10 @@
         <v>5914.3641633997804</v>
       </c>
       <c r="E106">
-        <v>6912.0925100517297</v>
-      </c>
-      <c r="F106">
-        <v>5697.1509640628501</v>
-      </c>
-      <c r="G106">
-        <v>5739.9555701927502</v>
-      </c>
-      <c r="H106">
-        <v>5840.8774389404898</v>
-      </c>
-      <c r="I106">
         <v>25.020558977020698</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44835</v>
       </c>
@@ -3436,22 +2151,10 @@
         <v>6008.2711014351798</v>
       </c>
       <c r="E107">
-        <v>7046.1059291849297</v>
-      </c>
-      <c r="F107">
-        <v>5801.8899534148604</v>
-      </c>
-      <c r="G107">
-        <v>5820.7184506273798</v>
-      </c>
-      <c r="H107">
-        <v>5872.4211591679395</v>
-      </c>
-      <c r="I107">
         <v>25.224700068461001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44866</v>
       </c>
@@ -3465,22 +2168,10 @@
         <v>6109.1915134233504</v>
       </c>
       <c r="E108">
-        <v>7195.7642115144299</v>
-      </c>
-      <c r="F108">
-        <v>5920.6206660915304</v>
-      </c>
-      <c r="G108">
-        <v>5905.5475772981299</v>
-      </c>
-      <c r="H108">
-        <v>5878.0252270688998</v>
-      </c>
-      <c r="I108">
         <v>25.520278421427399</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44896</v>
       </c>
@@ -3494,22 +2185,10 @@
         <v>6198.7420728011703</v>
       </c>
       <c r="E109">
-        <v>7332.6049134335599</v>
-      </c>
-      <c r="F109">
-        <v>6025.9760411894003</v>
-      </c>
-      <c r="G109">
-        <v>5979.8025755246999</v>
-      </c>
-      <c r="H109">
-        <v>5880.2583146319503</v>
-      </c>
-      <c r="I109">
         <v>26.419529095034498</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44927</v>
       </c>
@@ -3523,22 +2202,10 @@
         <v>6279.4559153700202</v>
       </c>
       <c r="E110">
-        <v>7493.5111193521798</v>
-      </c>
-      <c r="F110">
-        <v>6125.3692607227204</v>
-      </c>
-      <c r="G110">
-        <v>6052.9068900315797</v>
-      </c>
-      <c r="H110">
-        <v>5773.2332080183796</v>
-      </c>
-      <c r="I110">
         <v>27.289641903008</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44958</v>
       </c>
@@ -3552,22 +2219,10 @@
         <v>6374.9191359175602</v>
       </c>
       <c r="E111">
-        <v>7665.4861831707403</v>
-      </c>
-      <c r="F111">
-        <v>6241.16673682493</v>
-      </c>
-      <c r="G111">
-        <v>6117.8330685521096</v>
-      </c>
-      <c r="H111">
-        <v>5771.0885529064399</v>
-      </c>
-      <c r="I111">
         <v>28.385126720913298</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44986</v>
       </c>
@@ -3581,22 +2236,10 @@
         <v>6452.4082496392202</v>
       </c>
       <c r="E112">
-        <v>7853.8763728967097</v>
-      </c>
-      <c r="F112">
-        <v>6305.8719231435898</v>
-      </c>
-      <c r="G112">
-        <v>6178.0173432450001</v>
-      </c>
-      <c r="H112">
-        <v>5783.4938441489203</v>
-      </c>
-      <c r="I112">
         <v>29.8553073609325</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45017</v>
       </c>
@@ -3610,22 +2253,10 @@
         <v>6518.3352309615802</v>
       </c>
       <c r="E113">
-        <v>8028.9619205661802</v>
-      </c>
-      <c r="F113">
-        <v>6338.2243604313999</v>
-      </c>
-      <c r="G113">
-        <v>6222.7050670907201</v>
-      </c>
-      <c r="H113">
-        <v>5893.1750861017099</v>
-      </c>
-      <c r="I113">
         <v>31.3926998411353</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45047</v>
       </c>
@@ -3639,22 +2270,10 @@
         <v>6570.4109599661297</v>
       </c>
       <c r="E114">
-        <v>8128.6290596183198</v>
-      </c>
-      <c r="F114">
-        <v>6382.9712576300099</v>
-      </c>
-      <c r="G114">
-        <v>6263.8536064521304</v>
-      </c>
-      <c r="H114">
-        <v>5939.2129500107203</v>
-      </c>
-      <c r="I114">
         <v>32.466405950329502</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45078</v>
       </c>
@@ -3668,22 +2287,10 @@
         <v>6636.3705404163702</v>
       </c>
       <c r="E115">
-        <v>8155.9165198698502</v>
-      </c>
-      <c r="F115">
-        <v>6481.1777636689703</v>
-      </c>
-      <c r="G115">
-        <v>6320.6628685772002</v>
-      </c>
-      <c r="H115">
-        <v>5967.5086225843997</v>
-      </c>
-      <c r="I115">
         <v>32.7693124245842</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45108</v>
       </c>
@@ -3697,22 +2304,10 @@
         <v>6682.22604297818</v>
       </c>
       <c r="E116">
-        <v>8155.8283941637501</v>
-      </c>
-      <c r="F116">
-        <v>6555.5977690034797</v>
-      </c>
-      <c r="G116">
-        <v>6374.1490449070297</v>
-      </c>
-      <c r="H116">
-        <v>5937.4671619217597</v>
-      </c>
-      <c r="I116">
         <v>33.004590669668701</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45139</v>
       </c>
@@ -3726,22 +2321,10 @@
         <v>6740.2570716129303</v>
       </c>
       <c r="E117">
-        <v>8256.6325793935703</v>
-      </c>
-      <c r="F117">
-        <v>6627.1312206002403</v>
-      </c>
-      <c r="G117">
-        <v>6411.6842743090401</v>
-      </c>
-      <c r="H117">
-        <v>5945.2613615546998</v>
-      </c>
-      <c r="I117">
         <v>32.9012441580253</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45170</v>
       </c>
@@ -3755,22 +2338,10 @@
         <v>6818.30700925369</v>
       </c>
       <c r="E118">
-        <v>8381.0650712078495</v>
-      </c>
-      <c r="F118">
-        <v>6684.64060232473</v>
-      </c>
-      <c r="G118">
-        <v>6480.2799504725599</v>
-      </c>
-      <c r="H118">
-        <v>6070.8182263588897</v>
-      </c>
-      <c r="I118">
         <v>33.227943335304701</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45200</v>
       </c>
@@ -3784,22 +2355,10 @@
         <v>6910.4056823321498</v>
       </c>
       <c r="E119">
-        <v>8443.3281968796891</v>
-      </c>
-      <c r="F119">
-        <v>6765.95908202585</v>
-      </c>
-      <c r="G119">
-        <v>6568.1884754844104</v>
-      </c>
-      <c r="H119">
-        <v>6277.2152127862</v>
-      </c>
-      <c r="I119">
         <v>34.0911838386235</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45231</v>
       </c>
@@ -3813,22 +2372,10 @@
         <v>7011.5351806480203</v>
       </c>
       <c r="E120">
-        <v>8391.3782772289705</v>
-      </c>
-      <c r="F120">
-        <v>6844.09613135569</v>
-      </c>
-      <c r="G120">
-        <v>6720.1378677274797</v>
-      </c>
-      <c r="H120">
-        <v>6537.5217061088097</v>
-      </c>
-      <c r="I120">
         <v>35.319058743978999</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45261</v>
       </c>
@@ -3842,22 +2389,10 @@
         <v>7118.9341399885298</v>
       </c>
       <c r="E121">
-        <v>8298.0127097078093</v>
-      </c>
-      <c r="F121">
-        <v>6919.4071400365001</v>
-      </c>
-      <c r="G121">
-        <v>6893.1630401360799</v>
-      </c>
-      <c r="H121">
-        <v>6866.1518206211804</v>
-      </c>
-      <c r="I121">
         <v>36.268492138702101</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45292</v>
       </c>
@@ -3870,23 +2405,11 @@
       <c r="D122" s="4">
         <v>7233</v>
       </c>
-      <c r="E122" s="4">
-        <v>8269</v>
-      </c>
-      <c r="F122" s="4">
-        <v>7005</v>
-      </c>
-      <c r="G122" s="4">
-        <v>7066</v>
-      </c>
-      <c r="H122" s="4">
-        <v>7118</v>
-      </c>
-      <c r="I122">
+      <c r="E122">
         <v>36.6</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45323</v>
       </c>
@@ -3899,23 +2422,11 @@
       <c r="D123" s="4">
         <v>7286</v>
       </c>
-      <c r="E123" s="4">
-        <v>8290</v>
-      </c>
-      <c r="F123" s="4">
-        <v>7048</v>
-      </c>
-      <c r="G123" s="4">
-        <v>7149</v>
-      </c>
-      <c r="H123" s="4">
-        <v>7144</v>
-      </c>
-      <c r="I123">
+      <c r="E123">
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45352</v>
       </c>
@@ -3928,23 +2439,11 @@
       <c r="D124" s="4">
         <v>7347</v>
       </c>
-      <c r="E124" s="4">
-        <v>8402</v>
-      </c>
-      <c r="F124" s="4">
-        <v>7090</v>
-      </c>
-      <c r="G124" s="4">
-        <v>7209</v>
-      </c>
-      <c r="H124" s="4">
-        <v>7203</v>
-      </c>
-      <c r="I124">
+      <c r="E124">
         <v>37.4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45383</v>
       </c>
@@ -3957,23 +2456,11 @@
       <c r="D125" s="4">
         <v>7395</v>
       </c>
-      <c r="E125" s="4">
-        <v>8554</v>
-      </c>
-      <c r="F125" s="4">
-        <v>7103</v>
-      </c>
-      <c r="G125" s="4">
-        <v>7271</v>
-      </c>
-      <c r="H125" s="4">
-        <v>7178</v>
-      </c>
-      <c r="I125">
+      <c r="E125">
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45413</v>
       </c>
@@ -3986,23 +2473,11 @@
       <c r="D126" s="4">
         <v>7504</v>
       </c>
-      <c r="E126" s="4">
-        <v>8678</v>
-      </c>
-      <c r="F126" s="4">
-        <v>7207</v>
-      </c>
-      <c r="G126" s="4">
-        <v>7375</v>
-      </c>
-      <c r="H126" s="4">
-        <v>7293</v>
-      </c>
-      <c r="I126">
+      <c r="E126">
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45444</v>
       </c>
@@ -4015,23 +2490,11 @@
       <c r="D127" s="4">
         <v>7562</v>
       </c>
-      <c r="E127" s="4">
-        <v>8760</v>
-      </c>
-      <c r="F127" s="4">
-        <v>7328</v>
-      </c>
-      <c r="G127" s="4">
-        <v>7375</v>
-      </c>
-      <c r="H127" s="4">
-        <v>7275</v>
-      </c>
-      <c r="I127">
+      <c r="E127">
         <v>38.1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45474</v>
       </c>
@@ -4044,23 +2507,11 @@
       <c r="D128" s="4">
         <v>7650</v>
       </c>
-      <c r="E128" s="4">
-        <v>8901</v>
-      </c>
-      <c r="F128" s="4">
-        <v>7461</v>
-      </c>
-      <c r="G128" s="4">
-        <v>7362</v>
-      </c>
-      <c r="H128" s="4">
-        <v>7479</v>
-      </c>
-      <c r="I128">
+      <c r="E128">
         <v>38.5</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45505</v>
       </c>
@@ -4073,23 +2524,11 @@
       <c r="D129" s="4">
         <v>7746</v>
       </c>
-      <c r="E129" s="4">
-        <v>9067</v>
-      </c>
-      <c r="F129" s="4">
-        <v>7565</v>
-      </c>
-      <c r="G129" s="4">
-        <v>7373</v>
-      </c>
-      <c r="H129" s="4">
-        <v>7755</v>
-      </c>
-      <c r="I129">
+      <c r="E129">
         <v>38.9</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45536</v>
       </c>
@@ -4102,23 +2541,11 @@
       <c r="D130" s="4">
         <v>7828</v>
       </c>
-      <c r="E130" s="4">
-        <v>9229</v>
-      </c>
-      <c r="F130" s="4">
-        <v>7643</v>
-      </c>
-      <c r="G130" s="4">
-        <v>7421</v>
-      </c>
-      <c r="H130" s="4">
-        <v>7852</v>
-      </c>
-      <c r="I130">
+      <c r="E130">
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45566</v>
       </c>
@@ -4131,23 +2558,11 @@
       <c r="D131" s="4">
         <v>7914</v>
       </c>
-      <c r="E131" s="4">
-        <v>9407</v>
-      </c>
-      <c r="F131" s="4">
-        <v>7741</v>
-      </c>
-      <c r="G131" s="4">
-        <v>7495</v>
-      </c>
-      <c r="H131" s="4">
-        <v>7779</v>
-      </c>
-      <c r="I131">
+      <c r="E131">
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45597</v>
       </c>
@@ -4160,23 +2575,11 @@
       <c r="D132" s="4">
         <v>7911</v>
       </c>
-      <c r="E132" s="4">
-        <v>9477</v>
-      </c>
-      <c r="F132" s="4">
-        <v>7736</v>
-      </c>
-      <c r="G132" s="4">
-        <v>7524</v>
-      </c>
-      <c r="H132" s="4">
-        <v>7534</v>
-      </c>
-      <c r="I132">
+      <c r="E132">
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45627</v>
       </c>
@@ -4189,23 +2592,11 @@
       <c r="D133" s="4">
         <v>7937</v>
       </c>
-      <c r="E133" s="4">
-        <v>9560</v>
-      </c>
-      <c r="F133" s="4">
-        <v>7715</v>
-      </c>
-      <c r="G133" s="4">
-        <v>7582</v>
-      </c>
-      <c r="H133" s="4">
-        <v>7536</v>
-      </c>
-      <c r="I133">
+      <c r="E133">
         <v>39.6</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45658</v>
       </c>
@@ -4218,23 +2609,11 @@
       <c r="D134" s="4">
         <v>7943</v>
       </c>
-      <c r="E134" s="4">
-        <v>9510</v>
-      </c>
-      <c r="F134" s="4">
-        <v>7711</v>
-      </c>
-      <c r="G134" s="4">
-        <v>7618</v>
-      </c>
-      <c r="H134" s="4">
-        <v>7565</v>
-      </c>
-      <c r="I134">
+      <c r="E134">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45689</v>
       </c>
@@ -4247,23 +2626,11 @@
       <c r="D135" s="4">
         <v>7974</v>
       </c>
-      <c r="E135" s="4">
-        <v>9548</v>
-      </c>
-      <c r="F135" s="4">
-        <v>7716</v>
-      </c>
-      <c r="G135" s="4">
-        <v>7683</v>
-      </c>
-      <c r="H135" s="4">
-        <v>7570</v>
-      </c>
-      <c r="I135">
+      <c r="E135">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45717</v>
       </c>
@@ -4276,23 +2643,11 @@
       <c r="D136" s="4">
         <v>7982</v>
       </c>
-      <c r="E136" s="4">
-        <v>9543</v>
-      </c>
-      <c r="F136" s="4">
-        <v>7711</v>
-      </c>
-      <c r="G136" s="4">
-        <v>7749</v>
-      </c>
-      <c r="H136" s="4">
-        <v>7420</v>
-      </c>
-      <c r="I136">
+      <c r="E136">
         <v>40.9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45748</v>
       </c>
@@ -4305,23 +2660,11 @@
       <c r="D137" s="4">
         <v>7936</v>
       </c>
-      <c r="E137" s="4">
-        <v>9536</v>
-      </c>
-      <c r="F137" s="4">
-        <v>7651</v>
-      </c>
-      <c r="G137" s="4">
-        <v>7745</v>
-      </c>
-      <c r="H137" s="4">
-        <v>7201</v>
-      </c>
-      <c r="I137">
+      <c r="E137">
         <v>41.1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45778</v>
       </c>
@@ -4334,23 +2677,11 @@
       <c r="D138" s="4">
         <v>7905</v>
       </c>
-      <c r="E138" s="4">
-        <v>9499</v>
-      </c>
-      <c r="F138" s="4">
-        <v>7654</v>
-      </c>
-      <c r="G138" s="4">
-        <v>7698</v>
-      </c>
-      <c r="H138" s="4">
-        <v>7095</v>
-      </c>
-      <c r="I138">
+      <c r="E138">
         <v>41.2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45809</v>
       </c>
@@ -4363,19 +2694,7 @@
       <c r="D139" s="4">
         <v>7886</v>
       </c>
-      <c r="E139" s="4">
-        <v>9475</v>
-      </c>
-      <c r="F139" s="4">
-        <v>7685</v>
-      </c>
-      <c r="G139" s="4">
-        <v>7643</v>
-      </c>
-      <c r="H139" s="4">
-        <v>7010</v>
-      </c>
-      <c r="I139">
+      <c r="E139">
         <v>41.8</v>
       </c>
     </row>
